--- a/GL/data/Kaustik/Kaustik.xlsx
+++ b/GL/data/Kaustik/Kaustik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dokumente\Uni\Physik\FPrak\git\TUD-FPrak\GL\data\Kaustik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\FPrak\TUD-FPrak\GL\data\Kaustik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A9B78-FEED-4AB8-97BE-FC1DA05EC815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C8CE-749D-4996-A083-EA748CDFB614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,19 +44,19 @@
     <t>mm</t>
   </si>
   <si>
-    <t>Entfernung CCD-Linse</t>
-  </si>
-  <si>
     <t>pixel</t>
   </si>
   <si>
-    <t>1/e² vert</t>
-  </si>
-  <si>
-    <t>1/e² horiz</t>
-  </si>
-  <si>
-    <t>Mittelwert 1/e²</t>
+    <t>Entfernung_CCD-Linse</t>
+  </si>
+  <si>
+    <t>1/e²_horiz</t>
+  </si>
+  <si>
+    <t>1/e²_vert</t>
+  </si>
+  <si>
+    <t>Mittelwert_1/e²</t>
   </si>
 </sst>
 </file>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,13 +393,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -413,16 +413,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>100</v>
       </c>
@@ -438,6 +441,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4">
         <v>140</v>
       </c>
@@ -453,6 +459,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="B5">
         <v>163</v>
       </c>
@@ -468,6 +477,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6">
         <v>173</v>
       </c>
@@ -483,6 +495,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7">
         <v>190</v>
       </c>
@@ -498,6 +513,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
       <c r="B8">
         <v>220</v>
       </c>
@@ -513,6 +531,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
       <c r="B9">
         <v>250</v>
       </c>
@@ -528,6 +549,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
       <c r="B10">
         <v>310</v>
       </c>
@@ -543,6 +567,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="B11">
         <v>410</v>
       </c>
@@ -558,6 +585,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
       <c r="B12">
         <v>500</v>
       </c>
